--- a/biology/Zoologie/Endromidae/Endromidae.xlsx
+++ b/biology/Zoologie/Endromidae/Endromidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Endromidae sont une famille de lépidoptères de la super-famille des Bombycoidea. Elle contient, selon les sources, entre 59[1] et 70[2] espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Endromidae sont une famille de lépidoptères de la super-famille des Bombycoidea. Elle contient, selon les sources, entre 59 et 70 espèces.
 </t>
         </is>
       </c>
@@ -511,16 +523,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Endromidae a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1828.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Endromidae a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1828.
 Elle a longtemps été considérée comme une famille monotypique ne contenant qu'un seul genre (Endromis) et une seule espèce (le Bombyx versicolore, Endromis versicolora).
-Cependant, des analyses de phylogénétique moléculaire ont conduit à réviser la taxonomie des Bombycoidea, et notamment à redéfinir la famille des Endromidae : celle-ci a absorbé l'ancienne famille des Mirinidae, ainsi que deux anciennes sous-familles des Bombycidae, les Oberthueriinae et les Prismostictinae[3].
-Synonymie
-Endromididae Meyrick, 1895[4]
-Prismostictinae Forbes, 1955
-Mirinidae Kozlov, 1985
-Oberthueriinae Kuznetzov &amp; Stekolnikov, 1985</t>
+Cependant, des analyses de phylogénétique moléculaire ont conduit à réviser la taxonomie des Bombycoidea, et notamment à redéfinir la famille des Endromidae : celle-ci a absorbé l'ancienne famille des Mirinidae, ainsi que deux anciennes sous-familles des Bombycidae, les Oberthueriinae et les Prismostictinae.
+</t>
         </is>
       </c>
     </row>
@@ -545,12 +555,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Endromididae Meyrick, 1895
+Prismostictinae Forbes, 1955
+Mirinidae Kozlov, 1985
+Oberthueriinae Kuznetzov &amp; Stekolnikov, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endromidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endromidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le site Tree of Life Web Project  (21 janvier 2019)[5] cite les onze genres suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le site Tree of Life Web Project  (21 janvier 2019) cite les onze genres suivants :
 Mirina Staudinger, 1892
 Oberthueria Kirby, 1892
 Mustilia Walker, 1865
@@ -562,7 +613,7 @@
 Sesquiluna Forbes, 1955
 Andraca Walker, 1865
 Pseudandraca Miyata, 1970
-auxquels certains auteurs ajoutent[2] :
+auxquels certains auteurs ajoutent :
 Prismostictoides Zolotuhin &amp; T.T. Du, 2011
 Comparmustilia Wang, X. &amp; Zolotuhin, 2015
 Promustilia Zolotuhin, 2007
